--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1695</v>
+        <v>1965</v>
       </c>
       <c r="C2">
         <v>1968</v>

--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="520" yWindow="0" windowWidth="51200" windowHeight="27240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -123,6 +124,36 @@
   </si>
   <si>
     <t>RTR+RTL loads the next address</t>
+  </si>
+  <si>
+    <t>PDP8_IAC_ROTS_UNSUPPORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_IOT0_IS_IAC         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_CLA_NMI_HANGS       </t>
+  </si>
+  <si>
+    <t>PDP8_CMA_ROTS_UNSUPPORTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_BSW_SUPPORTED       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_SWP_SUPPORTED       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_EAE_HAS_MODE_B      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP8_EAE_UNSUPPORTED     </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PDP8_SCL_SUPPORTED</t>
   </si>
 </sst>
 </file>
@@ -532,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -724,4 +755,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -762,7 +762,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -808,6 +808,9 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
@@ -825,6 +828,9 @@
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="0" windowWidth="51200" windowHeight="27240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -564,7 +564,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -803,6 +803,9 @@
       <c r="A5" t="s">
         <v>35</v>
       </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">

--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1220" yWindow="880" windowWidth="132600" windowHeight="24020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="355">
   <si>
     <t>Model</t>
   </si>
@@ -155,12 +156,954 @@
   <si>
     <t>PDP8_SCL_SUPPORTED</t>
   </si>
+  <si>
+    <t>Memory Reference Instructions</t>
+  </si>
+  <si>
+    <t>Bits</t>
+  </si>
+  <si>
+    <t>OPCODE</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>0 =&gt; EA = ADDRESS; 1 =&gt; EA = [ADDRESS]</t>
+  </si>
+  <si>
+    <t>0 =&gt; ZERO PAGE; 1 = CURRENT PAGE</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC AND [EA]</t>
+  </si>
+  <si>
+    <t>TAD</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC + [EA]; LINK = ~LINK on overflow</t>
+  </si>
+  <si>
+    <t>ISZ</t>
+  </si>
+  <si>
+    <t>[EA] &lt;= [EA] + 1; SKIP if [EA] == 0</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>[EA] &lt;= AC; AC &lt;= 0</t>
+  </si>
+  <si>
+    <t>JMS</t>
+  </si>
+  <si>
+    <t>[EA] &lt;= PC + 1; PC &lt;= EA + 1</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>PC &lt;= EA</t>
+  </si>
+  <si>
+    <t>IOT Instruction</t>
+  </si>
+  <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>FUNC</t>
+  </si>
+  <si>
+    <t>Microcoded Instructions</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>CLL</t>
+  </si>
+  <si>
+    <t>CMA</t>
+  </si>
+  <si>
+    <t>CML</t>
+  </si>
+  <si>
+    <t>RAR</t>
+  </si>
+  <si>
+    <t>RAL</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>AC &lt;= 0</t>
+  </si>
+  <si>
+    <t>LINK &lt;= 0</t>
+  </si>
+  <si>
+    <t>LINK &lt;= ~LINK</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC + 1</t>
+  </si>
+  <si>
+    <t>Rotate AC right through link</t>
+  </si>
+  <si>
+    <t>Rotate AC left through link</t>
+  </si>
+  <si>
+    <t>RTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(RAR + BSW) RAR twice </t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>(RAL + BSW) RAL twice</t>
+  </si>
+  <si>
+    <t>Swap upper and lower 6 bits of AC</t>
+  </si>
+  <si>
+    <t>Grp1</t>
+  </si>
+  <si>
+    <t>AC &lt;= ~AC</t>
+  </si>
+  <si>
+    <t>Grp2</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>SZA</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>REV</t>
+  </si>
+  <si>
+    <t>OSR</t>
+  </si>
+  <si>
+    <t>HLT</t>
+  </si>
+  <si>
+    <t>Skip if high bit of AC is set</t>
+  </si>
+  <si>
+    <t>Skip if AC == 0</t>
+  </si>
+  <si>
+    <t>Skip if LINK =/= 0</t>
+  </si>
+  <si>
+    <t>If REV == 0, skip if ANY condition is true</t>
+  </si>
+  <si>
+    <t>If REV == 1, skip if ALL conditions are false</t>
+  </si>
+  <si>
+    <t>If REV == 1 and no skip bits sent, unconditional skip</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC OR front panel switches (SR)</t>
+  </si>
+  <si>
+    <t>RUN &lt;= 0</t>
+  </si>
+  <si>
+    <t>Grp3</t>
+  </si>
+  <si>
+    <t>MQA</t>
+  </si>
+  <si>
+    <t>MQL</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC OR MQ</t>
+  </si>
+  <si>
+    <t>MQ &lt;= AC; AC &lt;= 0</t>
+  </si>
+  <si>
+    <t>MQA+MQL swaps AC &lt;=&gt; MQ</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>INSTR CODE</t>
+  </si>
+  <si>
+    <t>Shaded bits are implemented by the EAE option; otherwise ignored</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC OR SC</t>
+  </si>
+  <si>
+    <t>No operation</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SC &lt;= (~[PC+1])&amp;37; PC &lt;= PC + 1</t>
+  </si>
+  <si>
+    <t>MUY</t>
+  </si>
+  <si>
+    <t>AC:MQ &lt;= MQ * [PC+1]; PC &lt;= PC + 1</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>MQ &lt;= AC:MQ / [PC+1]</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC:MQ % [PC+1]</t>
+  </si>
+  <si>
+    <t>LINK &lt;=1 on overflow; else 0</t>
+  </si>
+  <si>
+    <t>PC &lt;= PC + 1</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>AC:MQ normalized</t>
+  </si>
+  <si>
+    <t>SHL</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>LINK &lt;= AC0</t>
+  </si>
+  <si>
+    <t>L:AC:MQ &lt;&lt;= [PC+1]+1; PC &lt;= PC + 1</t>
+  </si>
+  <si>
+    <t>L:AC:MQ &gt;&gt;= [PC+1]+1; PC &lt;= PC + 1</t>
+  </si>
+  <si>
+    <t>SHR</t>
+  </si>
+  <si>
+    <t>SWAB</t>
+  </si>
+  <si>
+    <t>7431</t>
+  </si>
+  <si>
+    <t>Set EAE to Mode B</t>
+  </si>
+  <si>
+    <t>7447</t>
+  </si>
+  <si>
+    <t>Set EAE to Mode A</t>
+  </si>
+  <si>
+    <t>SWBA</t>
+  </si>
+  <si>
+    <t>Mode A</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>SC &lt;= AC7-11; AC &lt;= 0</t>
+  </si>
+  <si>
+    <t>As mode A, except word 2 is an address</t>
+  </si>
+  <si>
+    <t>As mode A, except word 2 is exact count</t>
+  </si>
+  <si>
+    <t>Mode B (bit 6 is high bit of INSTR CODE)</t>
+  </si>
+  <si>
+    <t>DAD</t>
+  </si>
+  <si>
+    <t>DST</t>
+  </si>
+  <si>
+    <t>DPSZ</t>
+  </si>
+  <si>
+    <t>DPIC</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>(*) AC:MQ stored at OPERAND</t>
+  </si>
+  <si>
+    <t>(*) LINK:AC:MQ &lt;= AC:MQ + OPERAND</t>
+  </si>
+  <si>
+    <t>LINK:AC:MQ &lt;= AC:MQ + 1</t>
+  </si>
+  <si>
+    <t>SKIP if AC:MQ == 0</t>
+  </si>
+  <si>
+    <t>Switch to mode A</t>
+  </si>
+  <si>
+    <t>LINK:AC:MQ &lt;= (~AC:MQ)+1</t>
+  </si>
+  <si>
+    <t>AC &lt;= MQ - AC</t>
+  </si>
+  <si>
+    <t>L &lt;= AC &gt; MQ (unsigned)</t>
+  </si>
+  <si>
+    <t>GT &lt;= AC &lt;= MQ (signed)</t>
+  </si>
+  <si>
+    <t>Device IOT's</t>
+  </si>
+  <si>
+    <t>Interrupts (always device 00)</t>
+  </si>
+  <si>
+    <t>6001</t>
+  </si>
+  <si>
+    <t>ION</t>
+  </si>
+  <si>
+    <t>Enable interrupts after the following instruction</t>
+  </si>
+  <si>
+    <t>SKON</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Skip if interrupts are enabled</t>
+  </si>
+  <si>
+    <t>IOF</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>Disable interrupts immediately</t>
+  </si>
+  <si>
+    <t>SRQ</t>
+  </si>
+  <si>
+    <t>6003</t>
+  </si>
+  <si>
+    <t>Skip if any device is requesting an interrupt</t>
+  </si>
+  <si>
+    <t>GTF</t>
+  </si>
+  <si>
+    <t>6004</t>
+  </si>
+  <si>
+    <t>Load AC with the following state:</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>INTR</t>
+  </si>
+  <si>
+    <t>SUF</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>RTF</t>
+  </si>
+  <si>
+    <t>6005</t>
+  </si>
+  <si>
+    <t>Restores flags as saved by GTF</t>
+  </si>
+  <si>
+    <t>SGT</t>
+  </si>
+  <si>
+    <t>Skip if GT is set</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>6007</t>
+  </si>
+  <si>
+    <t>Reset as per front panel CLEAR key</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>62N1</t>
+  </si>
+  <si>
+    <t>CIF</t>
+  </si>
+  <si>
+    <t>62N2</t>
+  </si>
+  <si>
+    <t>DF &lt;= N</t>
+  </si>
+  <si>
+    <t>IB &lt;= N (IF &lt;= IB after next JMP or JMS)</t>
+  </si>
+  <si>
+    <t>CDF, CIF</t>
+  </si>
+  <si>
+    <t>62N3</t>
+  </si>
+  <si>
+    <t>Combination of CDF and CIF</t>
+  </si>
+  <si>
+    <t>RIF</t>
+  </si>
+  <si>
+    <t>6224</t>
+  </si>
+  <si>
+    <t>AC6-8 &lt;= AC6-8 OR IF</t>
+  </si>
+  <si>
+    <t>RIB</t>
+  </si>
+  <si>
+    <t>6234</t>
+  </si>
+  <si>
+    <t>AC6-11 &lt;= AC6-11 OR SF</t>
+  </si>
+  <si>
+    <t>RMF</t>
+  </si>
+  <si>
+    <t>6244</t>
+  </si>
+  <si>
+    <t>Restore memory registers as follows from SF:</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>UB</t>
+  </si>
+  <si>
+    <t>CINT</t>
+  </si>
+  <si>
+    <t>6204</t>
+  </si>
+  <si>
+    <t>Clears the user interrupt FF</t>
+  </si>
+  <si>
+    <t>SINT</t>
+  </si>
+  <si>
+    <t>6254</t>
+  </si>
+  <si>
+    <t>Skip on user interupt FF set</t>
+  </si>
+  <si>
+    <t>CUF</t>
+  </si>
+  <si>
+    <t>6264</t>
+  </si>
+  <si>
+    <t>Clears the user buffer FF</t>
+  </si>
+  <si>
+    <t>6274</t>
+  </si>
+  <si>
+    <t>Sets the user buffer FF; inhibits interrupts until JMP/JMS</t>
+  </si>
+  <si>
+    <t>DPI</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
+    <t>Disables interrupts on parity errors</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>6106</t>
+  </si>
+  <si>
+    <t>6101</t>
+  </si>
+  <si>
+    <t>Skip on no parity error</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>6103</t>
+  </si>
+  <si>
+    <t>Enable interrupts on parity errors</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>6104</t>
+  </si>
+  <si>
+    <t>Clear the parity error flag</t>
+  </si>
+  <si>
+    <t>SMP, CMP</t>
+  </si>
+  <si>
+    <t>6105</t>
+  </si>
+  <si>
+    <t>Skip on no parity error and clear parity error flag</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Inverty parity check on next execute cycle (force error)</t>
+  </si>
+  <si>
+    <t>SPO</t>
+  </si>
+  <si>
+    <t>6107</t>
+  </si>
+  <si>
+    <t>Skip if parity option installed</t>
+  </si>
+  <si>
+    <t>CLEI</t>
+  </si>
+  <si>
+    <t>6131</t>
+  </si>
+  <si>
+    <t>Enable interrupt on clock pulse</t>
+  </si>
+  <si>
+    <t>CLDI</t>
+  </si>
+  <si>
+    <t>6132</t>
+  </si>
+  <si>
+    <t>Disable interrupt on clock pulse</t>
+  </si>
+  <si>
+    <t>CLSK</t>
+  </si>
+  <si>
+    <t>6133</t>
+  </si>
+  <si>
+    <t>Skip on clock flag (set per pulse) and clear flag</t>
+  </si>
+  <si>
+    <t>Skip on clock interrupt</t>
+  </si>
+  <si>
+    <t>CLAB</t>
+  </si>
+  <si>
+    <t>CLZE</t>
+  </si>
+  <si>
+    <t>6130</t>
+  </si>
+  <si>
+    <t>Clock Buffer &lt;= AC</t>
+  </si>
+  <si>
+    <t>CLDE</t>
+  </si>
+  <si>
+    <t>Sets bits in clock enable from bits set in AC</t>
+  </si>
+  <si>
+    <t>Clears bits in clock enable set in AC</t>
+  </si>
+  <si>
+    <t>CLEN</t>
+  </si>
+  <si>
+    <t>6134</t>
+  </si>
+  <si>
+    <t>AC &lt;= clock enable register</t>
+  </si>
+  <si>
+    <t>CLSA</t>
+  </si>
+  <si>
+    <t>6135</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC OR clock status as follows:</t>
+  </si>
+  <si>
+    <t>OVF</t>
+  </si>
+  <si>
+    <t>EV3</t>
+  </si>
+  <si>
+    <t>EV2</t>
+  </si>
+  <si>
+    <t>EV1</t>
+  </si>
+  <si>
+    <t>NOTE: Status bits in clock are cleared after loiading into AC</t>
+  </si>
+  <si>
+    <t>CLBA</t>
+  </si>
+  <si>
+    <t>6136</t>
+  </si>
+  <si>
+    <t>AC &lt;= Clock Buffer</t>
+  </si>
+  <si>
+    <t>CLCA</t>
+  </si>
+  <si>
+    <t>6137</t>
+  </si>
+  <si>
+    <t>Clock Buffer &lt;= Clock Counter; AC &lt;= Clock Buffer</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>6102</t>
+  </si>
+  <si>
+    <t>Skip on power low</t>
+  </si>
+  <si>
+    <t>KM8-E Extended Memory and Timeshare (always device 2X)</t>
+  </si>
+  <si>
+    <t>MP8-E Memory Parity (always device 10)</t>
+  </si>
+  <si>
+    <t>DK8-EA Real Time Clock (Line Frequency)/DK8-EC (Crystal) (always device 13)</t>
+  </si>
+  <si>
+    <t>DK8-EP Programmable Real Time Clock (always device 13)</t>
+  </si>
+  <si>
+    <t>KP8-E Power Fail Detect (always device 10)</t>
+  </si>
+  <si>
+    <t>KL8-E/LC8-E Keyboard (defaults to device 03)</t>
+  </si>
+  <si>
+    <t>KCF</t>
+  </si>
+  <si>
+    <t>6030</t>
+  </si>
+  <si>
+    <t>Clear the keyboard flag</t>
+  </si>
+  <si>
+    <t>6031</t>
+  </si>
+  <si>
+    <t>Skip on keyboard flag</t>
+  </si>
+  <si>
+    <t>KSF</t>
+  </si>
+  <si>
+    <t>KCC</t>
+  </si>
+  <si>
+    <t>6032</t>
+  </si>
+  <si>
+    <t>Clear the keyboard flag and AC</t>
+  </si>
+  <si>
+    <t>KRS</t>
+  </si>
+  <si>
+    <t>6034</t>
+  </si>
+  <si>
+    <t>AC &lt;= AC OR keyboard buffer</t>
+  </si>
+  <si>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>6035</t>
+  </si>
+  <si>
+    <t>KIE &lt;= AC11 (interrupt enable)</t>
+  </si>
+  <si>
+    <t>KRB</t>
+  </si>
+  <si>
+    <t>6036</t>
+  </si>
+  <si>
+    <t>Clear AC, keyboard flag; AC5-11 &lt;= keyboard buffer</t>
+  </si>
+  <si>
+    <t>KL8-E/LC8-E Printer (defaults to device 04)</t>
+  </si>
+  <si>
+    <t>NOTE: early systems use these ops for integrated paper tape reader</t>
+  </si>
+  <si>
+    <t>NOTE: early systems use these ops for integrated paper tape punch</t>
+  </si>
+  <si>
+    <t>TFL</t>
+  </si>
+  <si>
+    <t>6040</t>
+  </si>
+  <si>
+    <t>Sets the printer flag</t>
+  </si>
+  <si>
+    <t>TSF</t>
+  </si>
+  <si>
+    <t>6041</t>
+  </si>
+  <si>
+    <t>Skip on printer flag set</t>
+  </si>
+  <si>
+    <t>TCF</t>
+  </si>
+  <si>
+    <t>6042</t>
+  </si>
+  <si>
+    <t>Clears the printer flag</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>6044</t>
+  </si>
+  <si>
+    <t>Printer buffer &lt;= AC5-11; print printer buffer</t>
+  </si>
+  <si>
+    <t>TSK</t>
+  </si>
+  <si>
+    <t>6045</t>
+  </si>
+  <si>
+    <t>Skip on (keyboard flag OR printer flag) AND KIE</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>6046</t>
+  </si>
+  <si>
+    <t>Executes TCF + TPC</t>
+  </si>
+  <si>
+    <t>PR8-E Paper Tape Reader</t>
+  </si>
+  <si>
+    <t>RPE</t>
+  </si>
+  <si>
+    <t>6010</t>
+  </si>
+  <si>
+    <t>Sets reader/punch interrupt enable</t>
+  </si>
+  <si>
+    <t>RSF</t>
+  </si>
+  <si>
+    <t>6011</t>
+  </si>
+  <si>
+    <t>Skip on reader flag</t>
+  </si>
+  <si>
+    <t>RRB</t>
+  </si>
+  <si>
+    <t>6012</t>
+  </si>
+  <si>
+    <t>AC4-11 &lt;= AC4-11 OR reader buffer</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>6014</t>
+  </si>
+  <si>
+    <t>Clears the reader flag, read on char, set reader flag on done</t>
+  </si>
+  <si>
+    <t>RRB RFC</t>
+  </si>
+  <si>
+    <t>6016</t>
+  </si>
+  <si>
+    <t>Executes RRB, then RFC</t>
+  </si>
+  <si>
+    <t>PP8-E Paper Tape Punch</t>
+  </si>
+  <si>
+    <t>PCE</t>
+  </si>
+  <si>
+    <t>6020</t>
+  </si>
+  <si>
+    <t>Clear reader/punch interrupt enable</t>
+  </si>
+  <si>
+    <t>PSF</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>Skip on punch flag</t>
+  </si>
+  <si>
+    <t>PCF</t>
+  </si>
+  <si>
+    <t>6022</t>
+  </si>
+  <si>
+    <t>Clear punch flag</t>
+  </si>
+  <si>
+    <t>PPC</t>
+  </si>
+  <si>
+    <t>6024</t>
+  </si>
+  <si>
+    <t>Punch buffer &lt;= AC4-11, then punch punch buffer</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>6026</t>
+  </si>
+  <si>
+    <t>Executes PCF + PPC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,13 +1127,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,7 +1186,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,24 +1198,146 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,7 +1670,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -761,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -844,4 +1950,2258 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="14" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>10</v>
+      </c>
+      <c r="N3" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="F5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="23">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7</v>
+      </c>
+      <c r="K17" s="6">
+        <v>8</v>
+      </c>
+      <c r="L17" s="6">
+        <v>9</v>
+      </c>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
+      <c r="N17" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="23">
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4</v>
+      </c>
+      <c r="H22" s="6">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>6</v>
+      </c>
+      <c r="J22" s="6">
+        <v>7</v>
+      </c>
+      <c r="K22" s="6">
+        <v>8</v>
+      </c>
+      <c r="L22" s="6">
+        <v>9</v>
+      </c>
+      <c r="M22" s="6">
+        <v>10</v>
+      </c>
+      <c r="N22" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="C31" s="5">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="5">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="C33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4</v>
+      </c>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
+      <c r="I35" s="6">
+        <v>6</v>
+      </c>
+      <c r="J35" s="6">
+        <v>7</v>
+      </c>
+      <c r="K35" s="6">
+        <v>8</v>
+      </c>
+      <c r="L35" s="6">
+        <v>9</v>
+      </c>
+      <c r="M35" s="6">
+        <v>10</v>
+      </c>
+      <c r="N35" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="C42" s="5">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="C43" s="5">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6">
+        <v>4</v>
+      </c>
+      <c r="H49" s="6">
+        <v>5</v>
+      </c>
+      <c r="I49" s="6">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6">
+        <v>7</v>
+      </c>
+      <c r="K49" s="6">
+        <v>8</v>
+      </c>
+      <c r="L49" s="6">
+        <v>9</v>
+      </c>
+      <c r="M49" s="6">
+        <v>10</v>
+      </c>
+      <c r="N49" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J50" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="C52" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="J67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10">
+      <c r="J68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10">
+      <c r="J69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10">
+      <c r="I73" s="5"/>
+      <c r="J73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J74" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10">
+      <c r="J75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10">
+      <c r="E77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="5:10">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10">
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J88" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J92" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10">
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10">
+      <c r="J95" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10">
+      <c r="J96" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="23">
+      <c r="A98" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="C102" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="C103" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="C104" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="C105" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="C106" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="C107" s="6">
+        <v>0</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+      <c r="E107" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" s="6">
+        <v>3</v>
+      </c>
+      <c r="G107" s="6">
+        <v>4</v>
+      </c>
+      <c r="H107" s="6">
+        <v>5</v>
+      </c>
+      <c r="I107" s="6">
+        <v>6</v>
+      </c>
+      <c r="J107" s="6">
+        <v>7</v>
+      </c>
+      <c r="K107" s="6">
+        <v>8</v>
+      </c>
+      <c r="L107" s="6">
+        <v>9</v>
+      </c>
+      <c r="M107" s="6">
+        <v>10</v>
+      </c>
+      <c r="N107" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="C108" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="C109" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="C110" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110">
+        <v>6006</v>
+      </c>
+      <c r="G110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="C111" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G111" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="C115" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G115" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="C116" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G116" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="C117" t="s">
+        <v>194</v>
+      </c>
+      <c r="E117" t="s">
+        <v>195</v>
+      </c>
+      <c r="G117" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="C118" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="C119" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="C120" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G120" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="C121" s="6">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>2</v>
+      </c>
+      <c r="F121" s="6">
+        <v>3</v>
+      </c>
+      <c r="G121" s="6">
+        <v>4</v>
+      </c>
+      <c r="H121" s="6">
+        <v>5</v>
+      </c>
+      <c r="I121" s="6">
+        <v>6</v>
+      </c>
+      <c r="J121" s="6">
+        <v>7</v>
+      </c>
+      <c r="K121" s="6">
+        <v>8</v>
+      </c>
+      <c r="L121" s="6">
+        <v>9</v>
+      </c>
+      <c r="M121" s="6">
+        <v>10</v>
+      </c>
+      <c r="N121" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="C122" s="5"/>
+      <c r="H122" t="s">
+        <v>208</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="C123" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G123" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="C124" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G124" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14">
+      <c r="C125" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G125" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="C126" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14">
+      <c r="B128" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="C130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G130" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="C131" t="s">
+        <v>223</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="C132" t="s">
+        <v>227</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G132" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="C133" t="s">
+        <v>230</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G133" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="C134" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G134" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="C135" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="G135" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="C136" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G136" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="C140" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G140" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="C141" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="C142" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E142" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G142" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="C146" t="s">
+        <v>247</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="G146" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="C147" t="s">
+        <v>251</v>
+      </c>
+      <c r="E147" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G147" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="C148" t="s">
+        <v>252</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G148" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="C149" t="s">
+        <v>255</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G149" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="C150" t="s">
+        <v>258</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G150" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="C151" t="s">
+        <v>261</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="G151" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="C152" s="6">
+        <v>0</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1</v>
+      </c>
+      <c r="E152" s="6">
+        <v>2</v>
+      </c>
+      <c r="F152" s="6">
+        <v>3</v>
+      </c>
+      <c r="G152" s="6">
+        <v>4</v>
+      </c>
+      <c r="H152" s="6">
+        <v>5</v>
+      </c>
+      <c r="I152" s="6">
+        <v>6</v>
+      </c>
+      <c r="J152" s="6">
+        <v>7</v>
+      </c>
+      <c r="K152" s="6">
+        <v>8</v>
+      </c>
+      <c r="L152" s="6">
+        <v>9</v>
+      </c>
+      <c r="M152" s="6">
+        <v>10</v>
+      </c>
+      <c r="N152" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="C153" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="M153" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="N153" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="D154" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14">
+      <c r="C155" t="s">
+        <v>269</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G155" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="C156" t="s">
+        <v>272</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G156" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="B158" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14">
+      <c r="C160" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="G160" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="C163" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="C164" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G164" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="C165" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="G165" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="C166" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G166" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="C167" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G167" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="C168" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="G168" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="C169" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G169" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="C172" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="C173" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G173" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="C174" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G174" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="C175" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G175" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="C176" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G176" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="C177" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="G177" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="C178" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="G178" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="C182" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G182" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="C183" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="C184" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G184" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="C185" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="G185" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="C186" t="s">
+        <v>336</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="G186" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="C190" t="s">
+        <v>340</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="G190" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="C191" t="s">
+        <v>343</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G191" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="C192" t="s">
+        <v>346</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G192" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7">
+      <c r="C193" t="s">
+        <v>349</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G193" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7">
+      <c r="C194" t="s">
+        <v>352</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G194" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="C52:N52"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/notes/models.xlsx
+++ b/data/notes/models.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="880" windowWidth="132600" windowHeight="24020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="132600" windowHeight="24020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1030,9 +1030,6 @@
     <t>6012</t>
   </si>
   <si>
-    <t>AC4-11 &lt;= AC4-11 OR reader buffer</t>
-  </si>
-  <si>
     <t>RFC</t>
   </si>
   <si>
@@ -1097,6 +1094,9 @@
   </si>
   <si>
     <t>Executes PCF + PPC</t>
+  </si>
+  <si>
+    <t>AC4-11 &lt;= AC4-11 OR reader buffer; clears reader flag</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:N194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="G194" sqref="G194"/>
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4096,89 +4096,89 @@
         <v>331</v>
       </c>
       <c r="G184" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="2:7">
       <c r="C185" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E185" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="E185" s="12" t="s">
+      <c r="G185" t="s">
         <v>334</v>
-      </c>
-      <c r="G185" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="186" spans="2:7">
       <c r="C186" t="s">
+        <v>335</v>
+      </c>
+      <c r="E186" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="E186" s="12" t="s">
+      <c r="G186" t="s">
         <v>337</v>
-      </c>
-      <c r="G186" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="188" spans="2:7">
       <c r="B188" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="190" spans="2:7">
       <c r="C190" t="s">
+        <v>339</v>
+      </c>
+      <c r="E190" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="E190" s="12" t="s">
+      <c r="G190" t="s">
         <v>341</v>
-      </c>
-      <c r="G190" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="191" spans="2:7">
       <c r="C191" t="s">
+        <v>342</v>
+      </c>
+      <c r="E191" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E191" s="12" t="s">
+      <c r="G191" t="s">
         <v>344</v>
-      </c>
-      <c r="G191" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="192" spans="2:7">
       <c r="C192" t="s">
+        <v>345</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E192" s="12" t="s">
+      <c r="G192" t="s">
         <v>347</v>
-      </c>
-      <c r="G192" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="193" spans="3:7">
       <c r="C193" t="s">
+        <v>348</v>
+      </c>
+      <c r="E193" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="E193" s="12" t="s">
+      <c r="G193" t="s">
         <v>350</v>
-      </c>
-      <c r="G193" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="194" spans="3:7">
       <c r="C194" t="s">
+        <v>351</v>
+      </c>
+      <c r="E194" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="E194" s="12" t="s">
+      <c r="G194" t="s">
         <v>353</v>
-      </c>
-      <c r="G194" t="s">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
